--- a/master_data/CL_INDICATORS.xlsx
+++ b/master_data/CL_INDICATORS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/hu2_un_org/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3475DE50-C5AB-429C-A083-A478088DC7B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78643CB7-A8AE-4748-8652-964B51089D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{47D07C60-1E5C-4197-9F20-0A5C89B6EAEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47D07C60-1E5C-4197-9F20-0A5C89B6EAEF}"/>
   </bookViews>
   <sheets>
     <sheet name="CL_INDICATORS" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>INDICATOR_ID</t>
   </si>
   <si>
-    <t>INDICATOR_NUM</t>
-  </si>
-  <si>
     <t>INDICATOR_DESC</t>
   </si>
   <si>
@@ -1231,13 +1228,16 @@
   </si>
   <si>
     <t>replaced in 2021 with SDG Indicator 5.1.1 "Whether or not legal frameworks are in place to promote, enforce and monitor equality and non‑discrimination on the basis of sex"</t>
+  </si>
+  <si>
+    <t>INDICATOR_LABEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -1823,10 +1823,10 @@
       <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -1844,76 +1844,76 @@
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="12" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>382</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="T1" s="7"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="25.5">
       <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="16">
         <v>0</v>
@@ -1928,25 +1928,25 @@
         <v>1</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="N2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="Q2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="R2" s="5">
         <v>1</v>
@@ -1957,16 +1957,16 @@
       <c r="T2" s="17"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="25.5">
       <c r="A3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" s="16">
         <v>0</v>
       </c>
@@ -1980,28 +1980,28 @@
         <v>1</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="16">
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="N3" s="17">
         <v>2</v>
       </c>
       <c r="O3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="R3" s="5">
         <v>10</v>
@@ -2012,16 +2012,16 @@
       <c r="T3" s="17"/>
       <c r="U3" s="13"/>
     </row>
-    <row r="4" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="38.25">
       <c r="A4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" s="16">
         <v>0</v>
       </c>
@@ -2035,28 +2035,28 @@
         <v>1</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="16">
         <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="N4" s="17">
         <v>12</v>
       </c>
       <c r="O4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="R4" s="5">
         <v>11</v>
@@ -2067,15 +2067,15 @@
       <c r="T4" s="17"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="51">
       <c r="A5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="D5" s="16">
         <v>0</v>
@@ -2090,31 +2090,31 @@
         <v>1</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="16">
         <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="N5" s="17">
+        <v>1</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="17">
-        <v>1</v>
-      </c>
-      <c r="O5" s="16" t="s">
+      <c r="P5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="Q5" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="R5" s="5">
         <v>12</v>
@@ -2125,15 +2125,15 @@
       <c r="T5" s="17"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="102">
       <c r="A6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="D6" s="16">
         <v>0</v>
@@ -2148,25 +2148,25 @@
         <v>1</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" s="17">
         <v>2</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="R6" s="5">
         <v>13</v>
@@ -2177,15 +2177,15 @@
       <c r="T6" s="17"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="D7" s="16">
         <v>0</v>
@@ -2200,19 +2200,19 @@
         <v>1</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="N7" s="17">
         <v>2</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R7" s="5">
         <v>14</v>
@@ -2223,15 +2223,15 @@
       <c r="T7" s="17"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="25.5">
       <c r="A8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>67</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>
@@ -2244,100 +2244,100 @@
         <v>1</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="19"/>
       <c r="T8" s="17"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="38.25">
       <c r="A9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="21" t="s">
+      <c r="O9" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="P9" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="25.5">
       <c r="A10" s="13">
         <v>13151395</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="N10" s="17">
         <v>4</v>
       </c>
       <c r="O10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="R10" s="5">
         <v>17</v>
@@ -2348,15 +2348,15 @@
       <c r="T10" s="17"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="25.5">
       <c r="A11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="D11" s="16">
         <v>0</v>
@@ -2371,25 +2371,25 @@
         <v>1</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" s="17">
         <v>4</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R11" s="5">
         <v>18</v>
@@ -2400,15 +2400,15 @@
       <c r="T11" s="17"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="25.5">
       <c r="A12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="D12" s="16">
         <v>0</v>
@@ -2423,19 +2423,19 @@
         <v>1</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="N12" s="17">
         <v>14</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R12" s="5">
         <v>2</v>
@@ -2446,16 +2446,16 @@
       <c r="T12" s="17"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="25.5">
       <c r="A13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="D13" s="16">
         <v>0</v>
       </c>
@@ -2469,25 +2469,25 @@
         <v>1</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="16">
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N13" s="17">
         <v>2</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R13" s="5">
         <v>3</v>
@@ -2498,16 +2498,16 @@
       <c r="T13" s="17"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="89.25">
       <c r="A14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="D14" s="16">
         <v>0</v>
       </c>
@@ -2521,31 +2521,31 @@
         <v>1</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="16">
         <v>15</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="L14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>102</v>
       </c>
       <c r="N14" s="17">
         <v>2</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R14" s="5">
         <v>4</v>
@@ -2556,48 +2556,48 @@
       <c r="T14" s="17"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="89.25">
       <c r="A15" s="13">
         <v>51881915</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>106</v>
-      </c>
       <c r="L15" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N15" s="17">
         <v>2</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R15" s="5">
         <v>5</v>
@@ -2608,16 +2608,16 @@
       <c r="T15" s="17"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="89.25">
       <c r="A16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>109</v>
-      </c>
       <c r="D16" s="16">
         <v>0</v>
       </c>
@@ -2631,28 +2631,28 @@
         <v>1</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="16">
         <v>14</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N16" s="17">
         <v>2</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R16" s="5">
         <v>6</v>
@@ -2663,53 +2663,53 @@
       <c r="T16" s="17"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="25.5">
       <c r="A17" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0</v>
-      </c>
-      <c r="E17" s="19">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="89.25">
       <c r="A18" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="D18" s="16">
         <v>0</v>
       </c>
@@ -2723,28 +2723,28 @@
         <v>1</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="16">
         <v>9</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="L18" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N18" s="17">
         <v>2</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R18" s="5">
         <v>8</v>
@@ -2755,15 +2755,15 @@
       <c r="T18" s="17"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="25.5">
       <c r="A19" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="D19" s="16">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>1</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="N19" s="17">
         <v>2</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R19" s="5">
         <v>9</v>
@@ -2804,13 +2804,13 @@
       <c r="T19" s="17"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="63.75">
       <c r="A20" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
@@ -2825,26 +2825,26 @@
         <v>1</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="16">
         <v>13</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20" s="16"/>
       <c r="N20" s="17">
         <v>2</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R20" s="5">
         <v>7</v>
@@ -2855,13 +2855,13 @@
       <c r="T20" s="17"/>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="63.75">
       <c r="A21" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="16">
         <v>1</v>
@@ -2876,20 +2876,20 @@
         <v>1</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L21" s="16"/>
       <c r="N21" s="17">
         <v>2</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R21" s="5">
         <v>15</v>
@@ -2900,13 +2900,13 @@
       <c r="T21" s="17"/>
       <c r="U21" s="13"/>
     </row>
-    <row r="22" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="63.75">
       <c r="A22" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D22" s="16">
         <v>1</v>
@@ -2921,20 +2921,20 @@
         <v>1</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L22" s="16"/>
       <c r="N22" s="17">
         <v>5</v>
       </c>
       <c r="O22" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="R22" s="5">
         <v>16</v>
@@ -2945,13 +2945,13 @@
       <c r="T22" s="17"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="89.25">
       <c r="A23" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
@@ -2966,20 +2966,20 @@
         <v>1</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L23" s="16"/>
       <c r="N23" s="17">
         <v>4</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R23" s="5">
         <v>19</v>
@@ -2990,15 +2990,15 @@
       <c r="T23" s="17"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="25.5">
       <c r="A24" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="C24" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>144</v>
       </c>
       <c r="D24" s="19">
         <v>0</v>
@@ -3013,29 +3013,29 @@
         <v>2</v>
       </c>
       <c r="H24" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="N24" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="O24" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="P24" s="19" t="s">
         <v>147</v>
-      </c>
-      <c r="P24" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="25.5">
       <c r="A25" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="C25" s="20" t="s">
         <v>150</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>151</v>
       </c>
       <c r="D25" s="19">
         <v>0</v>
@@ -3050,29 +3050,29 @@
         <v>2</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N25" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="O25" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="P25" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>154</v>
       </c>
       <c r="T25" s="17"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="25.5">
       <c r="A26" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="D26" s="16">
         <v>0</v>
@@ -3087,19 +3087,19 @@
         <v>2</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K26" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>159</v>
       </c>
       <c r="N26" s="17">
         <v>6</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R26" s="5">
         <v>31</v>
@@ -3110,15 +3110,15 @@
       <c r="T26" s="17"/>
       <c r="U26" s="13"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>161</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>162</v>
       </c>
       <c r="D27" s="19">
         <v>0</v>
@@ -3131,27 +3131,27 @@
         <v>2</v>
       </c>
       <c r="H27" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="N27" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="O27" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="P27" s="19"/>
       <c r="T27" s="17"/>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>165</v>
       </c>
       <c r="D28" s="16">
         <v>0</v>
@@ -3166,28 +3166,28 @@
         <v>2</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I28" s="16">
         <v>5</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M28" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>166</v>
       </c>
       <c r="N28" s="17">
         <v>6</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R28" s="5">
         <v>22</v>
@@ -3198,15 +3198,15 @@
       <c r="T28" s="17"/>
       <c r="U28" s="13"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="C29" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="D29" s="16">
         <v>0</v>
@@ -3221,25 +3221,25 @@
         <v>2</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I29" s="16">
         <v>6</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K29" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L29" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>159</v>
       </c>
       <c r="N29" s="17">
         <v>6</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R29" s="5">
         <v>23</v>
@@ -3250,15 +3250,15 @@
       <c r="T29" s="17"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>173</v>
       </c>
       <c r="D30" s="19">
         <v>0</v>
@@ -3273,29 +3273,29 @@
         <v>2</v>
       </c>
       <c r="H30" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="N30" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="O30" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="O30" s="19" t="s">
-        <v>147</v>
-      </c>
       <c r="P30" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T30" s="17"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>176</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>177</v>
       </c>
       <c r="D31" s="19">
         <v>0</v>
@@ -3310,29 +3310,29 @@
         <v>2</v>
       </c>
       <c r="H31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="N31" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="O31" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="O31" s="19" t="s">
-        <v>147</v>
-      </c>
       <c r="P31" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T31" s="17"/>
       <c r="U31" s="13"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="C32" s="20" t="s">
         <v>179</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>180</v>
       </c>
       <c r="D32" s="19">
         <v>0</v>
@@ -3345,27 +3345,27 @@
         <v>2</v>
       </c>
       <c r="H32" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="N32" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="O32" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="O32" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="P32" s="19"/>
       <c r="T32" s="17"/>
       <c r="U32" s="13"/>
     </row>
-    <row r="33" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="25.5">
       <c r="A33" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="D33" s="16">
         <v>0</v>
@@ -3380,17 +3380,17 @@
         <v>2</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L33" s="16"/>
       <c r="N33" s="17">
         <v>6</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R33" s="5">
         <v>26</v>
@@ -3401,15 +3401,15 @@
       <c r="T33" s="17"/>
       <c r="U33" s="13"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="C34" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="D34" s="16">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>2</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K34" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M34" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="N34" s="17">
         <v>6</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R34" s="5">
         <v>20</v>
@@ -3450,13 +3450,13 @@
       <c r="T34" s="17"/>
       <c r="U34" s="13"/>
     </row>
-    <row r="35" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="51">
       <c r="A35" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D35" s="16">
         <v>1</v>
@@ -3471,29 +3471,29 @@
         <v>2</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I35" s="16">
         <v>4</v>
       </c>
       <c r="J35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>192</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>193</v>
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N35" s="17">
         <v>6</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R35" s="5">
         <v>21</v>
@@ -3504,13 +3504,13 @@
       <c r="T35" s="17"/>
       <c r="U35" s="13"/>
     </row>
-    <row r="36" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="25.5">
       <c r="A36" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D36" s="16">
         <v>1</v>
@@ -3525,22 +3525,22 @@
         <v>2</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N36" s="17">
         <v>6</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R36" s="5">
         <v>24</v>
@@ -3551,13 +3551,13 @@
       <c r="T36" s="17"/>
       <c r="U36" s="13"/>
     </row>
-    <row r="37" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" ht="25.5">
       <c r="A37" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D37" s="16">
         <v>1</v>
@@ -3572,23 +3572,23 @@
         <v>2</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I37" s="16">
         <v>7</v>
       </c>
       <c r="J37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="16" t="s">
         <v>199</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="L37" s="16"/>
       <c r="N37" s="17">
         <v>6</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R37" s="5">
         <v>25</v>
@@ -3599,13 +3599,13 @@
       <c r="T37" s="17"/>
       <c r="U37" s="13"/>
     </row>
-    <row r="38" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="63.75">
       <c r="A38" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D38" s="16">
         <v>1</v>
@@ -3620,20 +3620,20 @@
         <v>2</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L38" s="16"/>
       <c r="N38" s="17">
         <v>6</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R38" s="5">
         <v>27</v>
@@ -3644,13 +3644,13 @@
       <c r="T38" s="17"/>
       <c r="U38" s="13"/>
     </row>
-    <row r="39" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="38.25">
       <c r="A39" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D39" s="16">
         <v>1</v>
@@ -3665,20 +3665,20 @@
         <v>2</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L39" s="16"/>
       <c r="N39" s="17">
         <v>6</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R39" s="5">
         <v>28</v>
@@ -3689,13 +3689,13 @@
       <c r="T39" s="17"/>
       <c r="U39" s="13"/>
     </row>
-    <row r="40" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" ht="38.25">
       <c r="A40" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D40" s="16">
         <v>1</v>
@@ -3710,20 +3710,20 @@
         <v>2</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L40" s="16"/>
       <c r="N40" s="17">
         <v>6</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R40" s="5">
         <v>29</v>
@@ -3734,13 +3734,13 @@
       <c r="T40" s="17"/>
       <c r="U40" s="13"/>
     </row>
-    <row r="41" spans="1:21" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="76.5">
       <c r="A41" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D41" s="16">
         <v>1</v>
@@ -3755,20 +3755,20 @@
         <v>2</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L41" s="16"/>
       <c r="N41" s="17">
         <v>6</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R41" s="5">
         <v>30</v>
@@ -3779,15 +3779,15 @@
       <c r="T41" s="17"/>
       <c r="U41" s="13"/>
     </row>
-    <row r="42" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" ht="38.25">
       <c r="A42" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="C42" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="D42" s="16">
         <v>0</v>
@@ -3802,25 +3802,25 @@
         <v>3</v>
       </c>
       <c r="H42" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="K42" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="L42" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="L42" s="16" t="s">
-        <v>217</v>
-      </c>
       <c r="M42" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="17">
         <v>11</v>
       </c>
       <c r="O42" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="P42" s="16" t="s">
         <v>218</v>
-      </c>
-      <c r="P42" s="16" t="s">
-        <v>219</v>
       </c>
       <c r="R42" s="5">
         <v>32</v>
@@ -3831,15 +3831,15 @@
       <c r="T42" s="17"/>
       <c r="U42" s="13"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21">
       <c r="A43" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="C43" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>222</v>
       </c>
       <c r="D43" s="16">
         <v>0</v>
@@ -3854,25 +3854,25 @@
         <v>3</v>
       </c>
       <c r="H43" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I43" s="16">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K43" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="I43" s="16">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>216</v>
-      </c>
       <c r="L43" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N43" s="17">
         <v>11</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R43" s="5">
         <v>41</v>
@@ -3883,15 +3883,15 @@
       <c r="T43" s="17"/>
       <c r="U43" s="13"/>
     </row>
-    <row r="44" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" ht="25.5">
       <c r="A44" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="D44" s="16">
         <v>0</v>
@@ -3906,22 +3906,22 @@
         <v>3</v>
       </c>
       <c r="H44" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="K44" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="K44" s="16" t="s">
-        <v>216</v>
-      </c>
       <c r="L44" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N44" s="17">
         <v>13</v>
       </c>
       <c r="O44" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="P44" s="16" t="s">
         <v>227</v>
-      </c>
-      <c r="P44" s="16" t="s">
-        <v>228</v>
       </c>
       <c r="R44" s="5">
         <v>42</v>
@@ -3932,15 +3932,15 @@
       <c r="T44" s="17"/>
       <c r="U44" s="13"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21">
       <c r="A45" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="D45" s="16">
         <v>0</v>
@@ -3955,31 +3955,31 @@
         <v>3</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I45" s="16">
         <v>3</v>
       </c>
       <c r="J45" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K45" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="L45" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="M45" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="N45" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="M45" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="N45" s="17" t="s">
+      <c r="O45" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="O45" s="16" t="s">
+      <c r="P45" s="16" t="s">
         <v>236</v>
-      </c>
-      <c r="P45" s="16" t="s">
-        <v>237</v>
       </c>
       <c r="R45" s="5">
         <v>33</v>
@@ -3990,15 +3990,15 @@
       <c r="T45" s="17"/>
       <c r="U45" s="13"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21">
       <c r="A46" s="13">
         <v>75250979</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="D46" s="16">
         <v>0</v>
@@ -4013,25 +4013,25 @@
         <v>3</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L46" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="M46" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="M46" s="16" t="s">
+      <c r="N46" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="N46" s="17" t="s">
+      <c r="O46" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O46" s="16" t="s">
+      <c r="P46" s="16" t="s">
         <v>243</v>
-      </c>
-      <c r="P46" s="16" t="s">
-        <v>244</v>
       </c>
       <c r="R46" s="5">
         <v>34</v>
@@ -4042,15 +4042,15 @@
       <c r="T46" s="17"/>
       <c r="U46" s="13"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21">
       <c r="A47" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="C47" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>247</v>
       </c>
       <c r="D47" s="16">
         <v>0</v>
@@ -4065,22 +4065,22 @@
         <v>3</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N47" s="17">
         <v>9</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R47" s="5">
         <v>35</v>
@@ -4091,15 +4091,15 @@
       <c r="T47" s="17"/>
       <c r="U47" s="13"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21">
       <c r="A48" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="C48" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>252</v>
       </c>
       <c r="D48" s="16">
         <v>0</v>
@@ -4114,25 +4114,25 @@
         <v>3</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L48" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="M48" s="16" t="s">
         <v>240</v>
-      </c>
-      <c r="M48" s="16" t="s">
-        <v>241</v>
       </c>
       <c r="N48" s="17">
         <v>9</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P48" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R48" s="5">
         <v>36</v>
@@ -4143,15 +4143,15 @@
       <c r="T48" s="17"/>
       <c r="U48" s="13"/>
     </row>
-    <row r="49" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="25.5">
       <c r="A49" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="C49" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>256</v>
       </c>
       <c r="D49" s="16">
         <v>0</v>
@@ -4166,22 +4166,22 @@
         <v>3</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K49" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="L49" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="L49" s="16" t="s">
-        <v>258</v>
       </c>
       <c r="N49" s="17">
         <v>13</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P49" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R49" s="5">
         <v>37</v>
@@ -4192,15 +4192,15 @@
       <c r="T49" s="17"/>
       <c r="U49" s="13"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21">
       <c r="A50" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="C50" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="D50" s="16">
         <v>0</v>
@@ -4215,19 +4215,19 @@
         <v>3</v>
       </c>
       <c r="H50" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="K50" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="K50" s="16" t="s">
-        <v>216</v>
-      </c>
       <c r="L50" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N50" s="17">
         <v>13</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R50" s="5">
         <v>38</v>
@@ -4238,15 +4238,15 @@
       <c r="T50" s="17"/>
       <c r="U50" s="13"/>
     </row>
-    <row r="51" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="25.5">
       <c r="A51" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="C51" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="D51" s="16">
         <v>0</v>
@@ -4261,25 +4261,25 @@
         <v>3</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K51" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="L51" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="L51" s="16" t="s">
+      <c r="M51" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="M51" s="16" t="s">
-        <v>268</v>
       </c>
       <c r="N51" s="17">
         <v>7</v>
       </c>
       <c r="O51" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="P51" s="16" t="s">
         <v>269</v>
-      </c>
-      <c r="P51" s="16" t="s">
-        <v>270</v>
       </c>
       <c r="R51" s="5">
         <v>39</v>
@@ -4290,15 +4290,15 @@
       <c r="T51" s="17"/>
       <c r="U51" s="13"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21">
       <c r="A52" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="C52" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="D52" s="16">
         <v>0</v>
@@ -4313,22 +4313,22 @@
         <v>3</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N52" s="17">
         <v>13</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R52" s="5">
         <v>40</v>
@@ -4339,15 +4339,15 @@
       <c r="T52" s="17"/>
       <c r="U52" s="13"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21">
       <c r="A53" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="C53" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="D53" s="16">
         <v>0</v>
@@ -4362,19 +4362,19 @@
         <v>4</v>
       </c>
       <c r="H53" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="K53" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="K53" s="16" t="s">
-        <v>279</v>
-      </c>
       <c r="L53" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="17">
         <v>3</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R53" s="5">
         <v>43</v>
@@ -4385,15 +4385,15 @@
       <c r="T53" s="17"/>
       <c r="U53" s="13"/>
     </row>
-    <row r="54" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="25.5">
       <c r="A54" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="C54" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="D54" s="16">
         <v>0</v>
@@ -4408,31 +4408,31 @@
         <v>4</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I54" s="16">
         <v>11</v>
       </c>
       <c r="J54" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="L54" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K54" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="L54" s="16" t="s">
+      <c r="M54" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="N54" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="M54" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="N54" s="17" t="s">
+      <c r="O54" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="O54" s="16" t="s">
+      <c r="P54" s="16" t="s">
         <v>287</v>
-      </c>
-      <c r="P54" s="16" t="s">
-        <v>288</v>
       </c>
       <c r="R54" s="5">
         <v>44</v>
@@ -4443,15 +4443,15 @@
       <c r="T54" s="17"/>
       <c r="U54" s="13"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21">
       <c r="A55" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="C55" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="D55" s="16">
         <v>0</v>
@@ -4466,22 +4466,22 @@
         <v>4</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N55" s="17">
         <v>2</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P55" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R55" s="5">
         <v>45</v>
@@ -4492,15 +4492,15 @@
       <c r="T55" s="17"/>
       <c r="U55" s="13"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21">
       <c r="A56" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="C56" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="D56" s="16">
         <v>0</v>
@@ -4515,17 +4515,17 @@
         <v>4</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L56" s="16"/>
       <c r="N56" s="17">
         <v>10</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R56" s="5">
         <v>46</v>
@@ -4536,15 +4536,15 @@
       <c r="T56" s="17"/>
       <c r="U56" s="13"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21">
       <c r="A57" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="C57" s="15" t="s">
         <v>299</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>300</v>
       </c>
       <c r="D57" s="16">
         <v>0</v>
@@ -4559,19 +4559,19 @@
         <v>4</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="17">
         <v>10</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R57" s="5">
         <v>47</v>
@@ -4582,15 +4582,15 @@
       <c r="T57" s="17"/>
       <c r="U57" s="13"/>
     </row>
-    <row r="58" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" ht="38.25">
       <c r="A58" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="C58" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>303</v>
       </c>
       <c r="D58" s="19">
         <v>0</v>
@@ -4605,29 +4605,29 @@
         <v>4</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N58" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="O58" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="O58" s="19" t="s">
+      <c r="P58" s="19" t="s">
         <v>305</v>
-      </c>
-      <c r="P58" s="19" t="s">
-        <v>306</v>
       </c>
       <c r="T58" s="17"/>
       <c r="U58" s="13"/>
     </row>
-    <row r="59" spans="1:21" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" ht="63.75">
       <c r="A59" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="C59" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="D59" s="16">
         <v>0</v>
@@ -4642,22 +4642,22 @@
         <v>5</v>
       </c>
       <c r="H59" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="K59" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="K59" s="16" t="s">
+      <c r="L59" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="L59" s="16" t="s">
+      <c r="N59" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="N59" s="17" t="s">
+      <c r="O59" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="O59" s="16" t="s">
+      <c r="P59" s="16" t="s">
         <v>314</v>
-      </c>
-      <c r="P59" s="16" t="s">
-        <v>315</v>
       </c>
       <c r="R59" s="5">
         <v>48</v>
@@ -4668,15 +4668,15 @@
       <c r="T59" s="17"/>
       <c r="U59" s="13"/>
     </row>
-    <row r="60" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" ht="51">
       <c r="A60" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="C60" s="15" t="s">
         <v>317</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>318</v>
       </c>
       <c r="D60" s="16">
         <v>0</v>
@@ -4691,19 +4691,19 @@
         <v>5</v>
       </c>
       <c r="H60" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="K60" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="L60" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="L60" s="16" t="s">
+      <c r="N60" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="N60" s="17" t="s">
+      <c r="O60" s="16" t="s">
         <v>313</v>
-      </c>
-      <c r="O60" s="16" t="s">
-        <v>314</v>
       </c>
       <c r="R60" s="5">
         <v>49</v>
@@ -4714,15 +4714,15 @@
       <c r="T60" s="17"/>
       <c r="U60" s="13"/>
     </row>
-    <row r="61" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" ht="25.5">
       <c r="A61" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="C61" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="D61" s="16">
         <v>0</v>
@@ -4737,22 +4737,22 @@
         <v>5</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L61" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N61" s="17">
         <v>9</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P61" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R61" s="5">
         <v>50</v>
@@ -4763,15 +4763,15 @@
       <c r="T61" s="17"/>
       <c r="U61" s="13"/>
     </row>
-    <row r="62" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" ht="25.5">
       <c r="A62" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="C62" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>326</v>
       </c>
       <c r="D62" s="16">
         <v>0</v>
@@ -4786,22 +4786,22 @@
         <v>5</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L62" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N62" s="17">
         <v>9</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P62" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R62" s="5">
         <v>51</v>
@@ -4812,15 +4812,15 @@
       <c r="T62" s="17"/>
       <c r="U62" s="13"/>
     </row>
-    <row r="63" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" ht="25.5">
       <c r="A63" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="C63" s="15" t="s">
         <v>330</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>331</v>
       </c>
       <c r="D63" s="16">
         <v>0</v>
@@ -4835,31 +4835,31 @@
         <v>5</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I63" s="16">
         <v>2</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M63" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N63" s="17">
         <v>11</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P63" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R63" s="5">
         <v>52</v>
@@ -4870,16 +4870,16 @@
       <c r="T63" s="17"/>
       <c r="U63" s="13"/>
     </row>
-    <row r="64" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" ht="25.5">
       <c r="A64" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="C64" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>336</v>
-      </c>
       <c r="D64" s="16">
         <v>0</v>
       </c>
@@ -4893,17 +4893,17 @@
         <v>1</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K64" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L64" s="16"/>
       <c r="N64" s="17">
         <v>2</v>
       </c>
       <c r="O64" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R64" s="5">
         <v>54</v>
@@ -4914,40 +4914,40 @@
       <c r="T64" s="17"/>
       <c r="U64" s="13"/>
     </row>
-    <row r="65" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" ht="25.5">
       <c r="A65" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="C65" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="D65" s="16">
+        <v>0</v>
+      </c>
+      <c r="E65" s="16">
+        <v>1</v>
+      </c>
+      <c r="F65" s="16">
+        <v>1</v>
+      </c>
+      <c r="G65" s="16">
+        <v>1</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" s="16" t="s">
         <v>339</v>
-      </c>
-      <c r="D65" s="16">
-        <v>0</v>
-      </c>
-      <c r="E65" s="16">
-        <v>1</v>
-      </c>
-      <c r="F65" s="16">
-        <v>1</v>
-      </c>
-      <c r="G65" s="16">
-        <v>1</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K65" s="16" t="s">
-        <v>340</v>
       </c>
       <c r="L65" s="16"/>
       <c r="N65" s="17">
         <v>2</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R65" s="5">
         <v>55</v>
@@ -4958,16 +4958,16 @@
       <c r="T65" s="17"/>
       <c r="U65" s="13"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21">
       <c r="A66" s="13">
         <v>79580982</v>
       </c>
       <c r="B66" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>342</v>
-      </c>
       <c r="D66" s="16">
         <v>0</v>
       </c>
@@ -4981,25 +4981,25 @@
         <v>1</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I66" s="2">
         <v>12</v>
       </c>
       <c r="J66" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K66" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="K66" s="16" t="s">
+      <c r="L66" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="L66" s="16" t="s">
+      <c r="N66" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="N66" s="17" t="s">
+      <c r="O66" s="16" t="s">
         <v>346</v>
-      </c>
-      <c r="O66" s="16" t="s">
-        <v>347</v>
       </c>
       <c r="R66" s="5">
         <v>56</v>
@@ -5008,16 +5008,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21">
       <c r="A67" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B67" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="C67" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>350</v>
-      </c>
       <c r="D67" s="16">
         <v>0</v>
       </c>
@@ -5031,17 +5031,17 @@
         <v>1</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L67" s="16"/>
       <c r="N67" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="O67" s="16" t="s">
         <v>346</v>
-      </c>
-      <c r="O67" s="16" t="s">
-        <v>347</v>
       </c>
       <c r="R67" s="5">
         <v>57</v>
@@ -5050,15 +5050,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" ht="25.5">
       <c r="A68" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B68" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="C68" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>353</v>
       </c>
       <c r="D68" s="16">
         <v>0</v>
@@ -5073,17 +5073,17 @@
         <v>4</v>
       </c>
       <c r="H68" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="K68" s="16" t="s">
         <v>278</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>279</v>
       </c>
       <c r="L68" s="16"/>
       <c r="N68" s="17">
         <v>3</v>
       </c>
       <c r="O68" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R68" s="5">
         <v>58</v>
@@ -5092,15 +5092,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" ht="25.5">
       <c r="A69" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B69" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="C69" s="15" t="s">
         <v>355</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>356</v>
       </c>
       <c r="D69" s="16">
         <v>0</v>
@@ -5115,17 +5115,17 @@
         <v>4</v>
       </c>
       <c r="H69" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="K69" s="16" t="s">
         <v>278</v>
-      </c>
-      <c r="K69" s="16" t="s">
-        <v>279</v>
       </c>
       <c r="L69" s="16"/>
       <c r="N69" s="17">
         <v>3</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R69" s="5">
         <v>59</v>
@@ -5134,15 +5134,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21">
       <c r="A70" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="C70" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>359</v>
       </c>
       <c r="D70" s="16">
         <v>0</v>
@@ -5157,13 +5157,13 @@
         <v>4</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N70" s="17">
         <v>14</v>
       </c>
       <c r="O70" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R70" s="5">
         <v>60</v>
@@ -5172,15 +5172,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" ht="38.25">
       <c r="A71" s="18">
         <v>71213127</v>
       </c>
       <c r="B71" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C71" s="20" t="s">
         <v>360</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>361</v>
       </c>
       <c r="D71" s="19">
         <v>0</v>
@@ -5195,27 +5195,27 @@
         <v>5</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N71" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="O71" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="O71" s="19" t="s">
+      <c r="P71" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="P71" s="19" t="s">
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="13" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
+      <c r="B72" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="C72" s="15" t="s">
         <v>366</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>367</v>
       </c>
       <c r="D72" s="16">
         <v>0</v>
@@ -5230,17 +5230,17 @@
         <v>5</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K72" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L72" s="16"/>
       <c r="N72" s="17">
         <v>15</v>
       </c>
       <c r="O72" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R72" s="5">
         <v>62</v>
@@ -5249,15 +5249,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" ht="25.5">
       <c r="A73" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B73" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="C73" s="15" t="s">
         <v>371</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>372</v>
       </c>
       <c r="D73" s="16">
         <v>0</v>
@@ -5272,17 +5272,17 @@
         <v>5</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L73" s="16"/>
       <c r="N73" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="O73" s="16" t="s">
         <v>374</v>
-      </c>
-      <c r="O73" s="16" t="s">
-        <v>375</v>
       </c>
       <c r="R73" s="5">
         <v>63</v>
@@ -5291,15 +5291,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21">
       <c r="A74" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="C74" s="15" t="s">
         <v>377</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>378</v>
       </c>
       <c r="D74" s="16">
         <v>0</v>
@@ -5314,17 +5314,17 @@
         <v>5</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L74" s="16"/>
       <c r="N74" s="17">
         <v>14</v>
       </c>
       <c r="O74" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="5">
         <v>64</v>
@@ -5333,13 +5333,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" ht="89.25">
       <c r="A75" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D75" s="16">
         <v>1</v>
@@ -5354,20 +5354,20 @@
         <v>5</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L75" s="16"/>
       <c r="N75" s="17">
         <v>15</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R75" s="5">
         <v>61</v>
@@ -5392,7 +5392,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/master_data/CL_INDICATORS.xlsx
+++ b/master_data/CL_INDICATORS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78643CB7-A8AE-4748-8652-964B51089D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530DF701-FA02-4882-8B8B-A9A449B8AF6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47D07C60-1E5C-4197-9F20-0A5C89B6EAEF}"/>
   </bookViews>
@@ -1470,6 +1470,7 @@
       <sheetName val="CL_AGENCY"/>
       <sheetName val="CL_AREA"/>
       <sheetName val="FuzzyLookup_AddIn_Undo_Sheet"/>
+      <sheetName val="CL_CHILDREN_UNDER6_PRESENCE"/>
       <sheetName val="CL_COD_old"/>
       <sheetName val="CL_COD"/>
       <sheetName val="CL_DISABILITY"/>
@@ -1489,6 +1490,7 @@
       <sheetName val="CL_URBANIZATION"/>
       <sheetName val="CL_VALUE_CATEGORY"/>
       <sheetName val="CL_VIOLENCE_TYPE"/>
+      <sheetName val="ESRI_MAPINFO_SHEET"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1515,6 +1517,8 @@
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1817,13 +1821,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E6B7C1-0A2A-44D8-BA24-E8637434AB2F}">
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1844,7 +1848,7 @@
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1">
+    <row r="1" spans="1:19" s="12" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1902,10 +1906,8 @@
       <c r="S1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="6"/>
-    </row>
-    <row r="2" spans="1:21" ht="25.5">
+    </row>
+    <row r="2" spans="1:19" ht="25.5">
       <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
@@ -1954,10 +1956,8 @@
       <c r="S2" s="5">
         <v>1</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="1:21" ht="25.5">
+    </row>
+    <row r="3" spans="1:19" ht="25.5">
       <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
@@ -2009,10 +2009,8 @@
       <c r="S3" s="5">
         <v>10</v>
       </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="13"/>
-    </row>
-    <row r="4" spans="1:21" ht="38.25">
+    </row>
+    <row r="4" spans="1:19" ht="38.25">
       <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
@@ -2064,10 +2062,8 @@
       <c r="S4" s="5">
         <v>11</v>
       </c>
-      <c r="T4" s="17"/>
-      <c r="U4" s="13"/>
-    </row>
-    <row r="5" spans="1:21" ht="51">
+    </row>
+    <row r="5" spans="1:19" ht="51">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -2122,10 +2118,8 @@
       <c r="S5" s="5">
         <v>12</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="13"/>
-    </row>
-    <row r="6" spans="1:21" ht="102">
+    </row>
+    <row r="6" spans="1:19" ht="102">
       <c r="A6" s="13" t="s">
         <v>53</v>
       </c>
@@ -2174,10 +2168,8 @@
       <c r="S6" s="5">
         <v>13</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="13"/>
-    </row>
-    <row r="7" spans="1:21">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="13" t="s">
         <v>59</v>
       </c>
@@ -2220,10 +2212,8 @@
       <c r="S7" s="5">
         <v>14</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="13"/>
-    </row>
-    <row r="8" spans="1:21" ht="25.5">
+    </row>
+    <row r="8" spans="1:19" ht="25.5">
       <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
@@ -2253,10 +2243,8 @@
         <v>34</v>
       </c>
       <c r="P8" s="19"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="13"/>
-    </row>
-    <row r="9" spans="1:21" ht="38.25">
+    </row>
+    <row r="9" spans="1:19" ht="38.25">
       <c r="A9" s="18" t="s">
         <v>68</v>
       </c>
@@ -2290,10 +2278,8 @@
       <c r="P9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="13"/>
-    </row>
-    <row r="10" spans="1:21" ht="25.5">
+    </row>
+    <row r="10" spans="1:19" ht="25.5">
       <c r="A10" s="13">
         <v>13151395</v>
       </c>
@@ -2345,10 +2331,8 @@
       <c r="S10" s="5">
         <v>17</v>
       </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="13"/>
-    </row>
-    <row r="11" spans="1:21" ht="25.5">
+    </row>
+    <row r="11" spans="1:19" ht="25.5">
       <c r="A11" s="13" t="s">
         <v>82</v>
       </c>
@@ -2397,10 +2381,8 @@
       <c r="S11" s="5">
         <v>18</v>
       </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="13"/>
-    </row>
-    <row r="12" spans="1:21" ht="25.5">
+    </row>
+    <row r="12" spans="1:19" ht="25.5">
       <c r="A12" s="13" t="s">
         <v>87</v>
       </c>
@@ -2443,10 +2425,8 @@
       <c r="S12" s="5">
         <v>2</v>
       </c>
-      <c r="T12" s="17"/>
-      <c r="U12" s="13"/>
-    </row>
-    <row r="13" spans="1:21" ht="25.5">
+    </row>
+    <row r="13" spans="1:19" ht="25.5">
       <c r="A13" s="13" t="s">
         <v>93</v>
       </c>
@@ -2495,10 +2475,8 @@
       <c r="S13" s="5">
         <v>3</v>
       </c>
-      <c r="T13" s="17"/>
-      <c r="U13" s="13"/>
-    </row>
-    <row r="14" spans="1:21" ht="89.25">
+    </row>
+    <row r="14" spans="1:19" ht="89.25">
       <c r="A14" s="13" t="s">
         <v>97</v>
       </c>
@@ -2553,10 +2531,8 @@
       <c r="S14" s="5">
         <v>4</v>
       </c>
-      <c r="T14" s="17"/>
-      <c r="U14" s="13"/>
-    </row>
-    <row r="15" spans="1:21" ht="89.25">
+    </row>
+    <row r="15" spans="1:19" ht="89.25">
       <c r="A15" s="13">
         <v>51881915</v>
       </c>
@@ -2605,10 +2581,8 @@
       <c r="S15" s="5">
         <v>5</v>
       </c>
-      <c r="T15" s="17"/>
-      <c r="U15" s="13"/>
-    </row>
-    <row r="16" spans="1:21" ht="89.25">
+    </row>
+    <row r="16" spans="1:19" ht="89.25">
       <c r="A16" s="13" t="s">
         <v>106</v>
       </c>
@@ -2660,10 +2634,8 @@
       <c r="S16" s="5">
         <v>6</v>
       </c>
-      <c r="T16" s="17"/>
-      <c r="U16" s="13"/>
-    </row>
-    <row r="17" spans="1:21" ht="25.5">
+    </row>
+    <row r="17" spans="1:19" ht="25.5">
       <c r="A17" s="18" t="s">
         <v>110</v>
       </c>
@@ -2697,10 +2669,8 @@
       <c r="P17" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="T17" s="17"/>
-      <c r="U17" s="13"/>
-    </row>
-    <row r="18" spans="1:21" ht="89.25">
+    </row>
+    <row r="18" spans="1:19" ht="89.25">
       <c r="A18" s="13" t="s">
         <v>114</v>
       </c>
@@ -2752,10 +2722,8 @@
       <c r="S18" s="5">
         <v>8</v>
       </c>
-      <c r="T18" s="17"/>
-      <c r="U18" s="13"/>
-    </row>
-    <row r="19" spans="1:21" ht="25.5">
+    </row>
+    <row r="19" spans="1:19" ht="25.5">
       <c r="A19" s="13" t="s">
         <v>120</v>
       </c>
@@ -2801,10 +2769,8 @@
       <c r="S19" s="5">
         <v>9</v>
       </c>
-      <c r="T19" s="17"/>
-      <c r="U19" s="13"/>
-    </row>
-    <row r="20" spans="1:21" ht="63.75">
+    </row>
+    <row r="20" spans="1:19" ht="63.75">
       <c r="A20" s="13" t="s">
         <v>126</v>
       </c>
@@ -2852,10 +2818,8 @@
       <c r="S20" s="5">
         <v>7</v>
       </c>
-      <c r="T20" s="17"/>
-      <c r="U20" s="13"/>
-    </row>
-    <row r="21" spans="1:21" ht="63.75">
+    </row>
+    <row r="21" spans="1:19" ht="63.75">
       <c r="A21" s="13" t="s">
         <v>130</v>
       </c>
@@ -2897,10 +2861,8 @@
       <c r="S21" s="5">
         <v>15</v>
       </c>
-      <c r="T21" s="17"/>
-      <c r="U21" s="13"/>
-    </row>
-    <row r="22" spans="1:21" ht="63.75">
+    </row>
+    <row r="22" spans="1:19" ht="63.75">
       <c r="A22" s="13" t="s">
         <v>134</v>
       </c>
@@ -2942,10 +2904,8 @@
       <c r="S22" s="5">
         <v>16</v>
       </c>
-      <c r="T22" s="17"/>
-      <c r="U22" s="13"/>
-    </row>
-    <row r="23" spans="1:21" ht="89.25">
+    </row>
+    <row r="23" spans="1:19" ht="89.25">
       <c r="A23" s="13" t="s">
         <v>138</v>
       </c>
@@ -2987,10 +2947,8 @@
       <c r="S23" s="5">
         <v>19</v>
       </c>
-      <c r="T23" s="17"/>
-      <c r="U23" s="13"/>
-    </row>
-    <row r="24" spans="1:21" ht="25.5">
+    </row>
+    <row r="24" spans="1:19" ht="25.5">
       <c r="A24" s="18" t="s">
         <v>141</v>
       </c>
@@ -3024,10 +2982,8 @@
       <c r="P24" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="T24" s="17"/>
-      <c r="U24" s="13"/>
-    </row>
-    <row r="25" spans="1:21" ht="25.5">
+    </row>
+    <row r="25" spans="1:19" ht="25.5">
       <c r="A25" s="18" t="s">
         <v>148</v>
       </c>
@@ -3061,10 +3017,8 @@
       <c r="P25" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="T25" s="17"/>
-      <c r="U25" s="13"/>
-    </row>
-    <row r="26" spans="1:21" ht="25.5">
+    </row>
+    <row r="26" spans="1:19" ht="25.5">
       <c r="A26" s="13" t="s">
         <v>154</v>
       </c>
@@ -3107,10 +3061,8 @@
       <c r="S26" s="5">
         <v>31</v>
       </c>
-      <c r="T26" s="17"/>
-      <c r="U26" s="13"/>
-    </row>
-    <row r="27" spans="1:21">
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="18" t="s">
         <v>159</v>
       </c>
@@ -3140,10 +3092,8 @@
         <v>146</v>
       </c>
       <c r="P27" s="19"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="13"/>
-    </row>
-    <row r="28" spans="1:21">
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="13" t="s">
         <v>162</v>
       </c>
@@ -3195,10 +3145,8 @@
       <c r="S28" s="5">
         <v>22</v>
       </c>
-      <c r="T28" s="17"/>
-      <c r="U28" s="13"/>
-    </row>
-    <row r="29" spans="1:21">
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="13" t="s">
         <v>166</v>
       </c>
@@ -3247,10 +3195,8 @@
       <c r="S29" s="5">
         <v>23</v>
       </c>
-      <c r="T29" s="17"/>
-      <c r="U29" s="13"/>
-    </row>
-    <row r="30" spans="1:21">
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="18" t="s">
         <v>170</v>
       </c>
@@ -3284,10 +3230,8 @@
       <c r="P30" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="T30" s="17"/>
-      <c r="U30" s="13"/>
-    </row>
-    <row r="31" spans="1:21">
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="18" t="s">
         <v>174</v>
       </c>
@@ -3321,10 +3265,8 @@
       <c r="P31" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="T31" s="17"/>
-      <c r="U31" s="13"/>
-    </row>
-    <row r="32" spans="1:21">
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="18" t="s">
         <v>177</v>
       </c>
@@ -3354,10 +3296,8 @@
         <v>146</v>
       </c>
       <c r="P32" s="19"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="13"/>
-    </row>
-    <row r="33" spans="1:21" ht="25.5">
+    </row>
+    <row r="33" spans="1:19" ht="25.5">
       <c r="A33" s="13" t="s">
         <v>180</v>
       </c>
@@ -3398,10 +3338,8 @@
       <c r="S33" s="5">
         <v>26</v>
       </c>
-      <c r="T33" s="17"/>
-      <c r="U33" s="13"/>
-    </row>
-    <row r="34" spans="1:21">
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="13" t="s">
         <v>184</v>
       </c>
@@ -3447,10 +3385,8 @@
       <c r="S34" s="5">
         <v>20</v>
       </c>
-      <c r="T34" s="17"/>
-      <c r="U34" s="13"/>
-    </row>
-    <row r="35" spans="1:21" ht="51">
+    </row>
+    <row r="35" spans="1:19" ht="51">
       <c r="A35" s="13" t="s">
         <v>189</v>
       </c>
@@ -3501,10 +3437,8 @@
       <c r="S35" s="5">
         <v>21</v>
       </c>
-      <c r="T35" s="17"/>
-      <c r="U35" s="13"/>
-    </row>
-    <row r="36" spans="1:21" ht="25.5">
+    </row>
+    <row r="36" spans="1:19" ht="25.5">
       <c r="A36" s="13" t="s">
         <v>194</v>
       </c>
@@ -3548,10 +3482,8 @@
       <c r="S36" s="5">
         <v>24</v>
       </c>
-      <c r="T36" s="17"/>
-      <c r="U36" s="13"/>
-    </row>
-    <row r="37" spans="1:21" ht="25.5">
+    </row>
+    <row r="37" spans="1:19" ht="25.5">
       <c r="A37" s="13" t="s">
         <v>196</v>
       </c>
@@ -3596,10 +3528,8 @@
       <c r="S37" s="5">
         <v>25</v>
       </c>
-      <c r="T37" s="17"/>
-      <c r="U37" s="13"/>
-    </row>
-    <row r="38" spans="1:21" ht="63.75">
+    </row>
+    <row r="38" spans="1:19" ht="63.75">
       <c r="A38" s="13" t="s">
         <v>200</v>
       </c>
@@ -3641,10 +3571,8 @@
       <c r="S38" s="5">
         <v>27</v>
       </c>
-      <c r="T38" s="17"/>
-      <c r="U38" s="13"/>
-    </row>
-    <row r="39" spans="1:21" ht="38.25">
+    </row>
+    <row r="39" spans="1:19" ht="38.25">
       <c r="A39" s="13" t="s">
         <v>203</v>
       </c>
@@ -3686,10 +3614,8 @@
       <c r="S39" s="5">
         <v>28</v>
       </c>
-      <c r="T39" s="17"/>
-      <c r="U39" s="13"/>
-    </row>
-    <row r="40" spans="1:21" ht="38.25">
+    </row>
+    <row r="40" spans="1:19" ht="38.25">
       <c r="A40" s="13" t="s">
         <v>206</v>
       </c>
@@ -3731,10 +3657,8 @@
       <c r="S40" s="5">
         <v>29</v>
       </c>
-      <c r="T40" s="17"/>
-      <c r="U40" s="13"/>
-    </row>
-    <row r="41" spans="1:21" ht="76.5">
+    </row>
+    <row r="41" spans="1:19" ht="76.5">
       <c r="A41" s="13" t="s">
         <v>208</v>
       </c>
@@ -3776,10 +3700,8 @@
       <c r="S41" s="5">
         <v>30</v>
       </c>
-      <c r="T41" s="17"/>
-      <c r="U41" s="13"/>
-    </row>
-    <row r="42" spans="1:21" ht="38.25">
+    </row>
+    <row r="42" spans="1:19" ht="38.25">
       <c r="A42" s="13" t="s">
         <v>211</v>
       </c>
@@ -3828,10 +3750,8 @@
       <c r="S42" s="5">
         <v>32</v>
       </c>
-      <c r="T42" s="17"/>
-      <c r="U42" s="13"/>
-    </row>
-    <row r="43" spans="1:21">
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="13" t="s">
         <v>219</v>
       </c>
@@ -3880,10 +3800,8 @@
       <c r="S43" s="5">
         <v>41</v>
       </c>
-      <c r="T43" s="17"/>
-      <c r="U43" s="13"/>
-    </row>
-    <row r="44" spans="1:21" ht="25.5">
+    </row>
+    <row r="44" spans="1:19" ht="25.5">
       <c r="A44" s="13" t="s">
         <v>222</v>
       </c>
@@ -3929,10 +3847,8 @@
       <c r="S44" s="5">
         <v>42</v>
       </c>
-      <c r="T44" s="17"/>
-      <c r="U44" s="13"/>
-    </row>
-    <row r="45" spans="1:21">
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="13" t="s">
         <v>228</v>
       </c>
@@ -3987,10 +3903,8 @@
       <c r="S45" s="5">
         <v>33</v>
       </c>
-      <c r="T45" s="17"/>
-      <c r="U45" s="13"/>
-    </row>
-    <row r="46" spans="1:21">
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="13">
         <v>75250979</v>
       </c>
@@ -4039,10 +3953,8 @@
       <c r="S46" s="5">
         <v>34</v>
       </c>
-      <c r="T46" s="17"/>
-      <c r="U46" s="13"/>
-    </row>
-    <row r="47" spans="1:21">
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="13" t="s">
         <v>244</v>
       </c>
@@ -4088,10 +4000,8 @@
       <c r="S47" s="5">
         <v>35</v>
       </c>
-      <c r="T47" s="17"/>
-      <c r="U47" s="13"/>
-    </row>
-    <row r="48" spans="1:21">
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="13" t="s">
         <v>249</v>
       </c>
@@ -4140,10 +4050,8 @@
       <c r="S48" s="5">
         <v>36</v>
       </c>
-      <c r="T48" s="17"/>
-      <c r="U48" s="13"/>
-    </row>
-    <row r="49" spans="1:21" ht="25.5">
+    </row>
+    <row r="49" spans="1:19" ht="25.5">
       <c r="A49" s="13" t="s">
         <v>253</v>
       </c>
@@ -4189,10 +4097,8 @@
       <c r="S49" s="5">
         <v>37</v>
       </c>
-      <c r="T49" s="17"/>
-      <c r="U49" s="13"/>
-    </row>
-    <row r="50" spans="1:21">
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="13" t="s">
         <v>259</v>
       </c>
@@ -4235,10 +4141,8 @@
       <c r="S50" s="5">
         <v>38</v>
       </c>
-      <c r="T50" s="17"/>
-      <c r="U50" s="13"/>
-    </row>
-    <row r="51" spans="1:21" ht="25.5">
+    </row>
+    <row r="51" spans="1:19" ht="25.5">
       <c r="A51" s="13" t="s">
         <v>262</v>
       </c>
@@ -4287,10 +4191,8 @@
       <c r="S51" s="5">
         <v>39</v>
       </c>
-      <c r="T51" s="17"/>
-      <c r="U51" s="13"/>
-    </row>
-    <row r="52" spans="1:21">
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="13" t="s">
         <v>270</v>
       </c>
@@ -4336,10 +4238,8 @@
       <c r="S52" s="5">
         <v>40</v>
       </c>
-      <c r="T52" s="17"/>
-      <c r="U52" s="13"/>
-    </row>
-    <row r="53" spans="1:21">
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="13" t="s">
         <v>274</v>
       </c>
@@ -4382,10 +4282,8 @@
       <c r="S53" s="5">
         <v>43</v>
       </c>
-      <c r="T53" s="17"/>
-      <c r="U53" s="13"/>
-    </row>
-    <row r="54" spans="1:21" ht="25.5">
+    </row>
+    <row r="54" spans="1:19" ht="25.5">
       <c r="A54" s="13" t="s">
         <v>280</v>
       </c>
@@ -4440,10 +4338,8 @@
       <c r="S54" s="5">
         <v>44</v>
       </c>
-      <c r="T54" s="17"/>
-      <c r="U54" s="13"/>
-    </row>
-    <row r="55" spans="1:21">
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="13" t="s">
         <v>288</v>
       </c>
@@ -4489,10 +4385,8 @@
       <c r="S55" s="5">
         <v>45</v>
       </c>
-      <c r="T55" s="17"/>
-      <c r="U55" s="13"/>
-    </row>
-    <row r="56" spans="1:21">
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="13" t="s">
         <v>293</v>
       </c>
@@ -4533,10 +4427,8 @@
       <c r="S56" s="5">
         <v>46</v>
       </c>
-      <c r="T56" s="17"/>
-      <c r="U56" s="13"/>
-    </row>
-    <row r="57" spans="1:21">
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="13" t="s">
         <v>297</v>
       </c>
@@ -4579,10 +4471,8 @@
       <c r="S57" s="5">
         <v>47</v>
       </c>
-      <c r="T57" s="17"/>
-      <c r="U57" s="13"/>
-    </row>
-    <row r="58" spans="1:21" ht="38.25">
+    </row>
+    <row r="58" spans="1:19" ht="38.25">
       <c r="A58" s="18" t="s">
         <v>300</v>
       </c>
@@ -4616,10 +4506,8 @@
       <c r="P58" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="T58" s="17"/>
-      <c r="U58" s="13"/>
-    </row>
-    <row r="59" spans="1:21" ht="63.75">
+    </row>
+    <row r="59" spans="1:19" ht="63.75">
       <c r="A59" s="13" t="s">
         <v>306</v>
       </c>
@@ -4665,10 +4553,8 @@
       <c r="S59" s="5">
         <v>48</v>
       </c>
-      <c r="T59" s="17"/>
-      <c r="U59" s="13"/>
-    </row>
-    <row r="60" spans="1:21" ht="51">
+    </row>
+    <row r="60" spans="1:19" ht="51">
       <c r="A60" s="13" t="s">
         <v>315</v>
       </c>
@@ -4711,10 +4597,8 @@
       <c r="S60" s="5">
         <v>49</v>
       </c>
-      <c r="T60" s="17"/>
-      <c r="U60" s="13"/>
-    </row>
-    <row r="61" spans="1:21" ht="25.5">
+    </row>
+    <row r="61" spans="1:19" ht="25.5">
       <c r="A61" s="13" t="s">
         <v>318</v>
       </c>
@@ -4760,10 +4644,8 @@
       <c r="S61" s="5">
         <v>50</v>
       </c>
-      <c r="T61" s="17"/>
-      <c r="U61" s="13"/>
-    </row>
-    <row r="62" spans="1:21" ht="25.5">
+    </row>
+    <row r="62" spans="1:19" ht="25.5">
       <c r="A62" s="13" t="s">
         <v>323</v>
       </c>
@@ -4809,10 +4691,8 @@
       <c r="S62" s="5">
         <v>51</v>
       </c>
-      <c r="T62" s="17"/>
-      <c r="U62" s="13"/>
-    </row>
-    <row r="63" spans="1:21" ht="25.5">
+    </row>
+    <row r="63" spans="1:19" ht="25.5">
       <c r="A63" s="13" t="s">
         <v>328</v>
       </c>
@@ -4867,10 +4747,8 @@
       <c r="S63" s="5">
         <v>52</v>
       </c>
-      <c r="T63" s="17"/>
-      <c r="U63" s="13"/>
-    </row>
-    <row r="64" spans="1:21" ht="25.5">
+    </row>
+    <row r="64" spans="1:19" ht="25.5">
       <c r="A64" s="13" t="s">
         <v>333</v>
       </c>
@@ -4911,10 +4789,8 @@
       <c r="S64" s="5">
         <v>1</v>
       </c>
-      <c r="T64" s="17"/>
-      <c r="U64" s="13"/>
-    </row>
-    <row r="65" spans="1:21" ht="25.5">
+    </row>
+    <row r="65" spans="1:19" ht="25.5">
       <c r="A65" s="13" t="s">
         <v>336</v>
       </c>
@@ -4955,10 +4831,8 @@
       <c r="S65" s="5">
         <v>2</v>
       </c>
-      <c r="T65" s="17"/>
-      <c r="U65" s="13"/>
-    </row>
-    <row r="66" spans="1:21">
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="13">
         <v>79580982</v>
       </c>
@@ -5008,7 +4882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:19">
       <c r="A67" s="13" t="s">
         <v>347</v>
       </c>
@@ -5050,7 +4924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="25.5">
+    <row r="68" spans="1:19" ht="25.5">
       <c r="A68" s="13" t="s">
         <v>350</v>
       </c>
@@ -5092,7 +4966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="25.5">
+    <row r="69" spans="1:19" ht="25.5">
       <c r="A69" s="13" t="s">
         <v>353</v>
       </c>
@@ -5134,7 +5008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:19">
       <c r="A70" s="13" t="s">
         <v>356</v>
       </c>
@@ -5172,7 +5046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="38.25">
+    <row r="71" spans="1:19" ht="38.25">
       <c r="A71" s="18">
         <v>71213127</v>
       </c>
@@ -5207,7 +5081,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:19">
       <c r="A72" s="13" t="s">
         <v>364</v>
       </c>
@@ -5249,7 +5123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="25.5">
+    <row r="73" spans="1:19" ht="25.5">
       <c r="A73" s="13" t="s">
         <v>369</v>
       </c>
@@ -5291,7 +5165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:19">
       <c r="A74" s="13" t="s">
         <v>375</v>
       </c>
@@ -5333,7 +5207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="89.25">
+    <row r="75" spans="1:19" ht="89.25">
       <c r="A75" s="13" t="s">
         <v>379</v>
       </c>
